--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3087.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3087.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170642210263833</v>
+        <v>1.253448963165283</v>
       </c>
       <c r="B1">
-        <v>2.514157733183442</v>
+        <v>2.267096519470215</v>
       </c>
       <c r="C1">
-        <v>3.802991681293671</v>
+        <v>4.50060510635376</v>
       </c>
       <c r="D1">
-        <v>4.201184162798175</v>
+        <v>2.90143346786499</v>
       </c>
       <c r="E1">
-        <v>1.235011605796511</v>
+        <v>1.370692491531372</v>
       </c>
     </row>
   </sheetData>
